--- a/C_61/C_61_历史.xlsx
+++ b/C_61/C_61_历史.xlsx
@@ -16,9 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd hh:mm"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -76,7 +77,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -586,7 +587,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>2021/06/18 18:00:00</t>
+          <t>2021-06-18 18:00</t>
         </is>
       </c>
       <c r="G2" s="1" t="n">
@@ -662,7 +663,7 @@
       </c>
       <c r="F3" s="6" t="inlineStr">
         <is>
-          <t>2019/08/24 21:18:00</t>
+          <t>2019-08-24 21:18</t>
         </is>
       </c>
       <c r="G3" s="5" t="n">
@@ -734,7 +735,7 @@
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>2019/09/17 14:08:00</t>
+          <t>2019-09-17 14:08</t>
         </is>
       </c>
       <c r="G4" s="5" t="n">
@@ -806,7 +807,7 @@
       </c>
       <c r="F5" s="6" t="inlineStr">
         <is>
-          <t>2019/11/15 18:01:00</t>
+          <t>2019-11-15 18:01</t>
         </is>
       </c>
       <c r="G5" s="5" t="n">
@@ -880,7 +881,7 @@
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>2021/06/12 15:20:00</t>
+          <t>2021-06-12 15:20</t>
         </is>
       </c>
       <c r="G6" s="5" t="n">
